--- a/adres.xlsx
+++ b/adres.xlsx
@@ -29,9 +29,6 @@
     <t>DANE</t>
   </si>
   <si>
-    <t>ADRES</t>
-  </si>
-  <si>
     <t>pesel</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>nowa7</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -524,19 +524,19 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,46 +544,46 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,30 +591,30 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,30 +622,30 @@
         <v>123</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,44 +653,44 @@
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
         <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
